--- a/server/apps/dcis/tests/resources/period_unload_services/test_organization_filter.xlsx
+++ b/server/apps/dcis/tests/resources/period_unload_services/test_organization_filter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\squak\projects\dcis\server\apps\dcis\tests\resources\period_unload_services\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\squak\projects\dcis\server\apps\dcis\tests\resources\period_unload_services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43779D9E-4092-4212-956C-2AA16495ABF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD10830B-3499-43B0-BBF1-E5A71A7CCC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="-3696" windowWidth="23232" windowHeight="12432" xr2:uid="{43BA7620-1E63-46FA-BA90-3FF2D0ACABDA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{43BA7620-1E63-46FA-BA90-3FF2D0ACABDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Головная форма" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>IdListEdu</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Значение 2</t>
   </si>
   <si>
-    <t>11.01.2023 00:00</t>
-  </si>
-  <si>
     <t>Иванов Иван Иванович</t>
   </si>
   <si>
@@ -127,15 +124,15 @@
   </si>
   <si>
     <t>Значение 4</t>
-  </si>
-  <si>
-    <t>12.01.2023 00:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -165,10 +162,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -486,10 +484,13 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:M2"/>
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="18" max="18" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -617,11 +618,11 @@
       <c r="P4" t="s">
         <v>23</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="3">
+        <v>44937</v>
+      </c>
+      <c r="S4" t="s">
         <v>24</v>
-      </c>
-      <c r="S4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -635,16 +636,16 @@
         <v>22</v>
       </c>
       <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>27</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -662,16 +663,16 @@
         <v>23</v>
       </c>
       <c r="O5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P5" t="s">
         <v>22</v>
       </c>
-      <c r="R5" t="s">
-        <v>31</v>
+      <c r="R5" s="3">
+        <v>44938</v>
       </c>
       <c r="S5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/server/apps/dcis/tests/resources/period_unload_services/test_organization_filter.xlsx
+++ b/server/apps/dcis/tests/resources/period_unload_services/test_organization_filter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\squak\projects\dcis\server\apps\dcis\tests\resources\period_unload_services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD10830B-3499-43B0-BBF1-E5A71A7CCC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9B1ED8-C97F-4C94-83C6-C7F9F161710C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{43BA7620-1E63-46FA-BA90-3FF2D0ACABDA}"/>
   </bookViews>
@@ -164,9 +164,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -484,7 +484,7 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,63 +493,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="R1" t="s">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="J2" s="2" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="1" t="s">
+      <c r="K2" s="3"/>
+      <c r="L2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
       <c r="J3" t="s">
         <v>15</v>
       </c>
@@ -574,6 +598,8 @@
       <c r="Q3" t="s">
         <v>16</v>
       </c>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -618,7 +644,7 @@
       <c r="P4" t="s">
         <v>23</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="1">
         <v>44937</v>
       </c>
       <c r="S4" t="s">
@@ -668,7 +694,7 @@
       <c r="P5" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="1">
         <v>44938</v>
       </c>
       <c r="S5" t="s">
@@ -676,11 +702,22 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="15">
+    <mergeCell ref="N1:Q2"/>
+    <mergeCell ref="R1:R3"/>
+    <mergeCell ref="S1:S3"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:Q2"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/server/apps/dcis/tests/resources/period_unload_services/test_organization_filter.xlsx
+++ b/server/apps/dcis/tests/resources/period_unload_services/test_organization_filter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\squak\projects\dcis\server\apps\dcis\tests\resources\period_unload_services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9B1ED8-C97F-4C94-83C6-C7F9F161710C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEDD996-E4BB-4E05-82A9-24201F58FD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{43BA7620-1E63-46FA-BA90-3FF2D0ACABDA}"/>
   </bookViews>
@@ -165,8 +165,12 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -484,7 +488,7 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+      <selection sqref="A1:S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,31 +497,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -526,80 +530,80 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3" t="s">
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="3"/>
+      <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M2" s="2"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -703,21 +707,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
     <mergeCell ref="N1:Q2"/>
     <mergeCell ref="R1:R3"/>
     <mergeCell ref="S1:S3"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
